--- a/Finance/GreenArch/EXECUTION/Manish_Kumar-K-1801_intt.on_06-02-20.xlsx
+++ b/Finance/GreenArch/EXECUTION/Manish_Kumar-K-1801_intt.on_06-02-20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\GitHubBack\PersonalDoc\Finance\GreenArch\EXECUTION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC02915-7333-4EE6-810C-9EAFA4299E40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19521172-9424-4B7D-AA1D-2EDDB1568A59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ledger account" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -239,13 +241,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="dd/mmm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="&quot;&quot;0"/>
-    <numFmt numFmtId="166" formatCode="&quot;&quot;0.00&quot; Dr&quot;"/>
-    <numFmt numFmtId="167" formatCode="&quot;&quot;0.00&quot; Cr&quot;"/>
-    <numFmt numFmtId="168" formatCode="[$-14009]d\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="169" formatCode="[$-14009]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="dd/mmm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="&quot;&quot;0"/>
+    <numFmt numFmtId="167" formatCode="&quot;&quot;0.00&quot; Dr&quot;"/>
+    <numFmt numFmtId="168" formatCode="&quot;&quot;0.00&quot; Cr&quot;"/>
+    <numFmt numFmtId="169" formatCode="[$-14009]d\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="170" formatCode="[$-14009]dd\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -830,7 +832,7 @@
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -875,72 +877,72 @@
   </cellStyleXfs>
   <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="167" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="167" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="167" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="166" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -953,7 +955,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -962,10 +964,10 @@
     <xf numFmtId="49" fontId="22" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -977,40 +979,40 @@
     <xf numFmtId="49" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="168" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="166" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1404,37 +1406,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77810E17-85B3-41A3-A527-A5C43FB28F6E}">
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
       <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.7109375" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="19" max="20" width="10.5703125" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="9.7109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.6640625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="11.44140625" hidden="1" customWidth="1"/>
+    <col min="19" max="20" width="10.5546875" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="11.44140625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5546875" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="9.6640625" hidden="1" customWidth="1"/>
     <col min="25" max="28" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="58" t="s">
         <v>1</v>
       </c>
@@ -1462,7 +1464,7 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
     </row>
-    <row r="2" spans="1:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="59" t="s">
         <v>2</v>
       </c>
@@ -1490,7 +1492,7 @@
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
     </row>
-    <row r="3" spans="1:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
         <v>3</v>
       </c>
@@ -1518,7 +1520,7 @@
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="58" t="s">
         <v>4</v>
       </c>
@@ -1546,7 +1548,7 @@
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="59" t="s">
         <v>5</v>
       </c>
@@ -1574,7 +1576,7 @@
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="57" t="s">
         <v>6</v>
       </c>
@@ -1602,7 +1604,7 @@
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
     </row>
-    <row r="7" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="57" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>7</v>
       </c>
@@ -1672,7 +1674,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="39">
         <v>42509</v>
       </c>
@@ -1716,7 +1718,7 @@
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="39">
         <v>42509</v>
       </c>
@@ -1760,7 +1762,7 @@
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="39">
         <v>42509</v>
       </c>
@@ -1806,7 +1808,7 @@
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="39">
         <v>42509</v>
       </c>
@@ -1852,7 +1854,7 @@
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="39">
         <v>42510</v>
       </c>
@@ -1898,7 +1900,7 @@
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="39">
         <v>42510</v>
       </c>
@@ -1944,7 +1946,7 @@
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="39">
         <v>42511</v>
       </c>
@@ -1988,7 +1990,7 @@
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="39">
         <v>42516</v>
       </c>
@@ -2030,7 +2032,7 @@
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="39">
         <v>42559</v>
       </c>
@@ -2072,7 +2074,7 @@
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="39">
         <v>42734</v>
       </c>
@@ -2114,7 +2116,7 @@
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="39">
         <v>42757</v>
       </c>
@@ -2156,7 +2158,7 @@
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="39">
         <v>42825</v>
       </c>
@@ -2198,7 +2200,7 @@
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="39">
         <v>43179</v>
       </c>
@@ -2240,7 +2242,7 @@
       <c r="Y20" s="10"/>
       <c r="Z20" s="10"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="39">
         <v>43179</v>
       </c>
@@ -2284,7 +2286,7 @@
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="39">
         <v>43182</v>
       </c>
@@ -2326,7 +2328,7 @@
       <c r="Y22" s="10"/>
       <c r="Z22" s="10"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="39">
         <v>43190</v>
       </c>
@@ -2368,7 +2370,7 @@
       <c r="Y23" s="10"/>
       <c r="Z23" s="10"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="39">
         <v>43190</v>
       </c>
@@ -2410,7 +2412,7 @@
       <c r="Y24" s="10"/>
       <c r="Z24" s="10"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="39">
         <v>43221</v>
       </c>
@@ -2452,7 +2454,7 @@
       <c r="Y25" s="10"/>
       <c r="Z25" s="10"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="39">
         <v>43221</v>
       </c>
@@ -2496,7 +2498,7 @@
       <c r="Y26" s="10"/>
       <c r="Z26" s="10"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="39">
         <v>43466</v>
       </c>
@@ -2540,7 +2542,7 @@
       <c r="Y27" s="10"/>
       <c r="Z27" s="10"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="39">
         <v>43498</v>
       </c>
@@ -2582,7 +2584,7 @@
       <c r="Y28" s="10"/>
       <c r="Z28" s="10"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="39">
         <v>43498</v>
       </c>
@@ -2624,7 +2626,7 @@
       </c>
       <c r="Z29" s="10"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="39">
         <v>43498</v>
       </c>
@@ -2666,7 +2668,7 @@
       <c r="Y30" s="10"/>
       <c r="Z30" s="10"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="39">
         <v>43498</v>
       </c>
@@ -2708,7 +2710,7 @@
         <v>36600</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="46"/>
       <c r="B32" s="51" t="s">
         <v>58</v>
@@ -2766,7 +2768,7 @@
         <v>36600</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2783,7 +2785,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="32"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2800,7 +2802,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="32"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2819,7 +2821,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="32"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>60</v>
       </c>
@@ -2864,7 +2866,7 @@
       </c>
       <c r="O36" s="32"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2881,7 +2883,7 @@
       <c r="N37" s="3"/>
       <c r="O37" s="32"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2902,7 +2904,7 @@
       <c r="N38" s="3"/>
       <c r="O38" s="32"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
         <v>65</v>
@@ -2942,7 +2944,7 @@
       </c>
       <c r="O39" s="32"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2981,7 +2983,7 @@
       <c r="N40" s="3"/>
       <c r="O40" s="32"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -3009,7 +3011,7 @@
       <c r="N41" s="3"/>
       <c r="O41" s="32"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="31" t="s">
         <v>67</v>
@@ -3036,7 +3038,7 @@
       <c r="N42" s="3"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
